--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,13 +465,10 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>Practitioner.meta.profile:sas-practitioner-aggregator</t>
-  </si>
-  <si>
-    <t>sas-practitioner-aggregator</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator</t>
+    <t>Practitioner.meta.profile:sas-practitioner-lrm</t>
+  </si>
+  <si>
+    <t>sas-practitioner-lrm</t>
   </si>
   <si>
     <t>Practitioner.meta.security</t>
@@ -2059,7 +2056,7 @@
   <cols>
     <col min="1" max="1" width="55.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.05078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.53515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -3406,7 +3403,7 @@
         <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>76</v>
@@ -3474,10 +3471,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3500,16 +3497,16 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3535,31 +3532,31 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3588,10 +3585,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3614,16 +3611,16 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3649,31 +3646,31 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3702,10 +3699,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3731,13 +3728,13 @@
         <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3787,7 +3784,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3816,10 +3813,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3842,16 +3839,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3877,31 +3874,31 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3930,14 +3927,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3956,16 +3953,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4015,7 +4012,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4033,7 +4030,7 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -4044,14 +4041,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4070,16 +4067,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4129,7 +4126,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4147,7 +4144,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -4158,10 +4155,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4187,10 +4184,10 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4239,7 +4236,7 @@
         <v>114</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4268,13 +4265,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>76</v>
@@ -4296,13 +4293,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4353,7 +4350,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4362,7 +4359,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>116</v>
@@ -4382,10 +4379,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4411,16 +4408,16 @@
         <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4469,7 +4466,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4487,7 +4484,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4498,10 +4495,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4524,17 +4521,17 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4571,10 +4568,10 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
@@ -4583,7 +4580,7 @@
         <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4598,24 +4595,24 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4724,10 +4721,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4838,10 +4835,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4864,19 +4861,19 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4901,31 +4898,31 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4940,10 +4937,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4954,10 +4951,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4980,19 +4977,19 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -5017,29 +5014,29 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5054,10 +5051,10 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -5068,10 +5065,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5180,10 +5177,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5294,10 +5291,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5320,19 +5317,19 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5381,7 +5378,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5396,10 +5393,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5410,10 +5407,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5522,10 +5519,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5636,10 +5633,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5665,16 +5662,16 @@
         <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5687,43 +5684,43 @@
         <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5738,10 +5735,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5752,10 +5749,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5781,13 +5778,13 @@
         <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5837,7 +5834,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5852,10 +5849,10 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5866,10 +5863,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5892,17 +5889,17 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5951,7 +5948,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5966,10 +5963,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5980,10 +5977,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6009,14 +6006,14 @@
         <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -6065,7 +6062,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6080,10 +6077,10 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -6094,10 +6091,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6120,19 +6117,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6181,7 +6178,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6196,10 +6193,10 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6210,10 +6207,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6239,16 +6236,16 @@
         <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -6297,7 +6294,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6312,10 +6309,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6326,10 +6323,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6355,16 +6352,16 @@
         <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6377,43 +6374,43 @@
         <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6428,13 +6425,13 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6442,10 +6439,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6471,13 +6468,13 @@
         <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6491,43 +6488,43 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6542,13 +6539,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6556,10 +6553,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6582,13 +6579,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6639,7 +6636,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6654,13 +6651,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6668,10 +6665,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6694,16 +6691,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6753,7 +6750,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6768,13 +6765,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6782,13 +6779,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>76</v>
@@ -6810,17 +6807,17 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6869,7 +6866,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6884,24 +6881,24 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7010,10 +7007,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7124,10 +7121,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7150,19 +7147,19 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -7187,31 +7184,31 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z45" t="s" s="2">
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7226,10 +7223,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7240,10 +7237,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7266,19 +7263,19 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7288,29 +7285,29 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="T46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7327,7 +7324,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7342,10 +7339,10 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7356,10 +7353,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7385,16 +7382,16 @@
         <v>129</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7404,46 +7401,46 @@
         <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7458,13 +7455,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7472,10 +7469,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7501,13 +7498,13 @@
         <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7521,43 +7518,43 @@
         <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7572,13 +7569,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7586,10 +7583,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7612,13 +7609,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7669,7 +7666,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7684,13 +7681,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7698,10 +7695,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7724,16 +7721,16 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7783,7 +7780,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7798,13 +7795,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7812,13 +7809,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
@@ -7840,17 +7837,17 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7899,7 +7896,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7914,24 +7911,24 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8040,10 +8037,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8154,10 +8151,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8180,19 +8177,19 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8217,31 +8214,31 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8256,10 +8253,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8270,10 +8267,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8296,19 +8293,19 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8318,7 +8315,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8333,14 +8330,14 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8357,7 +8354,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8372,10 +8369,10 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8386,10 +8383,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8415,16 +8412,16 @@
         <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8434,46 +8431,46 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8488,13 +8485,13 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8502,10 +8499,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8531,13 +8528,13 @@
         <v>101</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8551,43 +8548,43 @@
         <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8602,13 +8599,13 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8616,10 +8613,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8642,13 +8639,13 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8699,7 +8696,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8714,13 +8711,13 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8728,10 +8725,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8754,16 +8751,16 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8813,7 +8810,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8828,13 +8825,13 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -8842,13 +8839,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>76</v>
@@ -8870,17 +8867,17 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8929,7 +8926,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8944,24 +8941,24 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9070,10 +9067,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9184,10 +9181,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9210,19 +9207,19 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9247,31 +9244,31 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z63" t="s" s="2">
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9286,10 +9283,10 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9300,10 +9297,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9326,19 +9323,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9348,7 +9345,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -9363,14 +9360,14 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9387,7 +9384,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9402,10 +9399,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9416,10 +9413,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9445,16 +9442,16 @@
         <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N65" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9464,46 +9461,46 @@
         <v>76</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T65" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9518,13 +9515,13 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9532,10 +9529,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9561,13 +9558,13 @@
         <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9581,43 +9578,43 @@
         <v>76</v>
       </c>
       <c r="T66" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9632,13 +9629,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9646,10 +9643,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9672,13 +9669,13 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9729,7 +9726,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9744,13 +9741,13 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -9758,10 +9755,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9784,16 +9781,16 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9843,7 +9840,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9858,13 +9855,13 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -9872,10 +9869,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9898,26 +9895,26 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="O69" t="s" s="2">
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="P69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q69" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="R69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9961,7 +9958,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9979,21 +9976,21 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10016,19 +10013,19 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10077,7 +10074,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10086,19 +10083,19 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>76</v>
@@ -10106,10 +10103,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10132,19 +10129,19 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -10193,7 +10190,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10202,19 +10199,19 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -10222,10 +10219,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10248,19 +10245,19 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10309,7 +10306,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10318,19 +10315,19 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>76</v>
@@ -10338,10 +10335,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10364,17 +10361,17 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -10399,14 +10396,14 @@
         <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10423,7 +10420,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10438,13 +10435,13 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10452,10 +10449,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10478,17 +10475,17 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10537,7 +10534,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10552,13 +10549,13 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10566,10 +10563,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10592,17 +10589,17 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10651,7 +10648,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10669,10 +10666,10 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10680,10 +10677,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10706,13 +10703,13 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10751,7 +10748,7 @@
         <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
@@ -10761,7 +10758,7 @@
         <v>114</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10776,13 +10773,13 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>76</v>
@@ -10790,10 +10787,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10902,10 +10899,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11016,14 +11013,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11045,16 +11042,16 @@
         <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -11103,7 +11100,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11121,7 +11118,7 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11132,10 +11129,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11158,17 +11155,17 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -11217,7 +11214,7 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11235,7 +11232,7 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -11246,10 +11243,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11272,13 +11269,13 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11305,14 +11302,14 @@
         <v>76</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11329,7 +11326,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>87</v>
@@ -11347,10 +11344,10 @@
         <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>76</v>
@@ -11358,10 +11355,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11384,17 +11381,17 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -11443,7 +11440,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11461,10 +11458,10 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>76</v>
@@ -11472,10 +11469,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11498,13 +11495,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11555,7 +11552,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11573,7 +11570,7 @@
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -11584,13 +11581,13 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>76</v>
@@ -11612,13 +11609,13 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11669,7 +11666,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11684,13 +11681,13 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>76</v>
@@ -11698,10 +11695,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11810,10 +11807,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11924,14 +11921,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11953,16 +11950,16 @@
         <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -12011,7 +12008,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12029,7 +12026,7 @@
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -12040,10 +12037,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12066,17 +12063,17 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>76</v>
@@ -12125,7 +12122,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12143,7 +12140,7 @@
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
@@ -12154,10 +12151,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12180,13 +12177,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12213,14 +12210,14 @@
         <v>76</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>76</v>
       </c>
@@ -12237,7 +12234,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>87</v>
@@ -12255,10 +12252,10 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>76</v>
@@ -12266,10 +12263,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12378,10 +12375,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B91" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12492,10 +12489,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12518,19 +12515,19 @@
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>76</v>
@@ -12574,10 +12571,10 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12592,10 +12589,10 @@
         <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12606,13 +12603,13 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>76</v>
@@ -12634,19 +12631,19 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>76</v>
@@ -12671,11 +12668,11 @@
         <v>76</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>76</v>
@@ -12693,7 +12690,7 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12708,10 +12705,10 @@
         <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -12722,13 +12719,13 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>76</v>
@@ -12750,19 +12747,19 @@
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>76</v>
@@ -12787,11 +12784,11 @@
         <v>76</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>76</v>
@@ -12809,7 +12806,7 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -12824,10 +12821,10 @@
         <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -12838,10 +12835,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12867,16 +12864,16 @@
         <v>101</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -12925,7 +12922,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -12940,10 +12937,10 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12954,10 +12951,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12980,17 +12977,17 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -13039,7 +13036,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13057,10 +13054,10 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>76</v>
@@ -13068,10 +13065,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13094,13 +13091,13 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13151,7 +13148,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13169,7 +13166,7 @@
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -13180,13 +13177,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>76</v>
@@ -13208,13 +13205,13 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13265,7 +13262,7 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13280,13 +13277,13 @@
         <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>76</v>
@@ -13294,10 +13291,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13406,10 +13403,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13520,14 +13517,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13549,16 +13546,16 @@
         <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>76</v>
@@ -13607,7 +13604,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13625,7 +13622,7 @@
         <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -13636,10 +13633,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13662,17 +13659,17 @@
         <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
@@ -13721,7 +13718,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -13739,7 +13736,7 @@
         <v>76</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13750,10 +13747,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13776,13 +13773,13 @@
         <v>76</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13809,14 +13806,14 @@
         <v>76</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>76</v>
       </c>
@@ -13833,7 +13830,7 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>87</v>
@@ -13851,10 +13848,10 @@
         <v>76</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>76</v>
@@ -13862,10 +13859,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13974,10 +13971,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14088,10 +14085,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14114,19 +14111,19 @@
         <v>88</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>76</v>
@@ -14170,10 +14167,10 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14188,10 +14185,10 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14202,13 +14199,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>76</v>
@@ -14230,19 +14227,19 @@
         <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M107" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -14267,11 +14264,11 @@
         <v>76</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>76</v>
@@ -14289,7 +14286,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14304,10 +14301,10 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14318,13 +14315,13 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C108" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>76</v>
@@ -14346,19 +14343,19 @@
         <v>88</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M108" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>76</v>
@@ -14383,11 +14380,11 @@
         <v>76</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>76</v>
@@ -14405,7 +14402,7 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14420,10 +14417,10 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL108" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14434,10 +14431,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14463,16 +14460,16 @@
         <v>101</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>76</v>
@@ -14521,7 +14518,7 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -14536,10 +14533,10 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -14550,10 +14547,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14576,17 +14573,17 @@
         <v>76</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>76</v>
@@ -14635,7 +14632,7 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -14653,10 +14650,10 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>76</v>
@@ -14664,10 +14661,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14690,13 +14687,13 @@
         <v>76</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14747,7 +14744,7 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -14765,7 +14762,7 @@
         <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14776,13 +14773,13 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>76</v>
@@ -14804,13 +14801,13 @@
         <v>76</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14861,7 +14858,7 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -14876,13 +14873,13 @@
         <v>99</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AM112" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>76</v>
@@ -14890,10 +14887,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15002,10 +14999,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15116,14 +15113,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15145,16 +15142,16 @@
         <v>108</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>76</v>
@@ -15203,7 +15200,7 @@
         <v>76</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -15221,7 +15218,7 @@
         <v>76</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15232,10 +15229,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15258,17 +15255,17 @@
         <v>76</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>76</v>
@@ -15317,7 +15314,7 @@
         <v>76</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -15335,7 +15332,7 @@
         <v>76</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -15346,10 +15343,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15372,13 +15369,13 @@
         <v>76</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15405,14 +15402,14 @@
         <v>76</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z117" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AA117" t="s" s="2">
         <v>76</v>
       </c>
@@ -15429,7 +15426,7 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>87</v>
@@ -15447,10 +15444,10 @@
         <v>76</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>76</v>
@@ -15458,10 +15455,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15570,10 +15567,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15684,10 +15681,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15710,19 +15707,19 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>76</v>
@@ -15766,10 +15763,10 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -15784,10 +15781,10 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -15798,13 +15795,13 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C121" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>76</v>
@@ -15826,19 +15823,19 @@
         <v>88</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M121" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>76</v>
@@ -15863,11 +15860,11 @@
         <v>76</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>76</v>
@@ -15885,7 +15882,7 @@
         <v>76</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
@@ -15900,10 +15897,10 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
@@ -15914,13 +15911,13 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>76</v>
@@ -15942,19 +15939,19 @@
         <v>88</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M122" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>76</v>
@@ -15979,11 +15976,11 @@
         <v>76</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>76</v>
@@ -16001,7 +15998,7 @@
         <v>76</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -16016,10 +16013,10 @@
         <v>99</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL122" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16030,10 +16027,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16059,16 +16056,16 @@
         <v>101</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>76</v>
@@ -16117,7 +16114,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16132,10 +16129,10 @@
         <v>99</v>
       </c>
       <c r="AK123" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL123" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16146,10 +16143,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16172,17 +16169,17 @@
         <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>76</v>
@@ -16231,7 +16228,7 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -16249,10 +16246,10 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM124" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>76</v>
@@ -16260,10 +16257,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16286,13 +16283,13 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16343,7 +16340,7 @@
         <v>76</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -16361,7 +16358,7 @@
         <v>76</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16372,10 +16369,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16398,19 +16395,19 @@
         <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>76</v>
@@ -16435,14 +16432,14 @@
         <v>76</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y126" t="s" s="2">
+      <c r="Z126" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Z126" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AA126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16459,7 +16456,7 @@
         <v>76</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -16474,13 +16471,13 @@
         <v>99</v>
       </c>
       <c r="AK126" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AL126" t="s" s="2">
+      <c r="AM126" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>76</v>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T15:03:40+00:00</t>
+    <t>2025-08-22T16:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T16:11:41+00:00</t>
+    <t>2025-08-25T06:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T06:59:32+00:00</t>
+    <t>2025-08-25T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T09:39:34+00:00</t>
+    <t>2025-08-25T11:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T11:15:03+00:00</t>
+    <t>2025-08-26T14:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:01:05+00:00</t>
+    <t>2025-08-26T14:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:47:20+00:00</t>
+    <t>2025-08-26T15:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T15:19:13+00:00</t>
+    <t>2025-08-28T09:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T09:04:45+00:00</t>
+    <t>2025-08-28T13:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:33:26+00:00</t>
+    <t>2025-08-28T13:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:53:19+00:00</t>
+    <t>2025-08-29T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T14:53:04+00:00</t>
+    <t>2025-09-02T14:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:06:24+00:00</t>
+    <t>2025-09-02T14:14:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:14:48+00:00</t>
+    <t>2025-09-02T15:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T15:31:32+00:00</t>
+    <t>2025-09-02T16:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:40:07+00:00</t>
+    <t>2025-09-03T15:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T15:56:47+00:00</t>
+    <t>2025-09-03T16:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>87</v>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-lrm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
